--- a/Data Files/C768.xlsx
+++ b/Data Files/C768.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A362430-6903-5A41-B9AE-2BF4870EE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F068DC4-1779-F84A-B386-D2163D4E8993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16820" xr2:uid="{98DDB9CB-8D5C-0D4E-91B0-288FD0A749B0}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>CGARNER024@GMAIL.COM</t>
+    <t>Ray@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,6 +441,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4C6FCC4C-05FA-EB44-A1A9-B5859E95DF89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
